--- a/Documentation/Tests.xlsx
+++ b/Documentation/Tests.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tafewa-my.sharepoint.com/personal/20026893_tafe_wa_edu_au/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diech\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F87FFC25-E736-4844-AF33-4AFF4855EC2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E056BA4-5064-4421-94EB-522DE993AA72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-936" windowWidth="30936" windowHeight="16896" xr2:uid="{B109AC54-A184-430E-B05A-3663D9DA4D0E}"/>
+    <workbookView xWindow="-30828" yWindow="-936" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{B109AC54-A184-430E-B05A-3663D9DA4D0E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Functional Tests" sheetId="1" r:id="rId1"/>
+    <sheet name="Non-Functional Tests" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="104">
   <si>
     <t>Test Number</t>
   </si>
@@ -258,6 +259,93 @@
   </si>
   <si>
     <t>Various sample images with different hair textures are presented</t>
+  </si>
+  <si>
+    <t>Non-Functional requirements</t>
+  </si>
+  <si>
+    <t>NF3.5.1</t>
+  </si>
+  <si>
+    <t>NF3.5.2</t>
+  </si>
+  <si>
+    <t>NF3.5.3</t>
+  </si>
+  <si>
+    <t>NF3.5.4</t>
+  </si>
+  <si>
+    <t>NF3.5.5</t>
+  </si>
+  <si>
+    <t>NF3.5.6</t>
+  </si>
+  <si>
+    <t>NF3.5.7</t>
+  </si>
+  <si>
+    <t>Usability</t>
+  </si>
+  <si>
+    <t>Interactivity</t>
+  </si>
+  <si>
+    <t>Responsiveness</t>
+  </si>
+  <si>
+    <t>Extendibility</t>
+  </si>
+  <si>
+    <t>Maintainability</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>User logs in and navigates through multiple sections available in the menu in sequence, number of steps to perform an action is registered</t>
+  </si>
+  <si>
+    <t>Number of steps required to perform any given action should not be greater than 3</t>
+  </si>
+  <si>
+    <t>User uploads a picture and freely makes modifications. Feedback is documented for the animations and effects experienced.</t>
+  </si>
+  <si>
+    <t>Animations and effects experienced by the user should not be jarring or negatively impacted the UX in any way</t>
+  </si>
+  <si>
+    <t>Three users with different screen sizes freely navigate through all the sections of the app and any feedback on UI issues is documented</t>
+  </si>
+  <si>
+    <t>No issues with the layout / UI of the app are recorded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional development environments for the project are tested: PyCharm instead of VSCode, Ubuntu instead of Windows 10, XAMPP intead of Laragon </t>
+  </si>
+  <si>
+    <t>No issues with the development environment choices are recorded</t>
+  </si>
+  <si>
+    <t>Code base of the project is analysed by an external developer (not part of the development team) and feedback on maintainability is documented</t>
+  </si>
+  <si>
+    <t>Code base should be well documented, easy to understand and to maintain</t>
+  </si>
+  <si>
+    <t>Vulnerabilities and potential issues with dependencies are researched by the developers (e.g. through GitHub issues)</t>
+  </si>
+  <si>
+    <t>No vulnerabilities are found</t>
+  </si>
+  <si>
+    <t>User logs in, uploads a picture, continuously makes modifications and saves results. Performance metrics are recorded.</t>
+  </si>
+  <si>
+    <t>CPU and RAM usage are acceptable for mid-range phones. Response times average below 1000ms.</t>
   </si>
 </sst>
 </file>
@@ -381,27 +469,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -412,42 +488,21 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -457,29 +512,80 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -796,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801E9815-9DCE-4A7E-89F5-E50AA095E091}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -808,7 +914,7 @@
     <col min="2" max="2" width="21.5546875" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="67" customWidth="1"/>
-    <col min="5" max="5" width="110.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="110.6640625" style="5" customWidth="1"/>
     <col min="6" max="6" width="98.88671875" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" customWidth="1"/>
     <col min="8" max="8" width="24.88671875" customWidth="1"/>
@@ -816,601 +922,649 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="34">
         <v>44075</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+      <c r="A9" s="36">
         <v>1</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="18" t="s">
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="18" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="11" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="36"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="15" t="s">
+      <c r="E12" s="24"/>
+      <c r="F12" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="18" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="18" t="s">
+      <c r="E13" s="24"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="11" t="s">
+      <c r="E14" s="24"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="36"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="15" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="18" t="s">
+      <c r="G15" s="9"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="36"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="17" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="18" t="s">
+      <c r="E16" s="24"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="36"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="16"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+      <c r="A18" s="26">
         <v>2</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="32"/>
-    </row>
-    <row r="19" spans="1:9" s="9" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3" t="s">
+      <c r="E18" s="24"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9" s="5" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="12" t="s">
+      <c r="G19" s="28"/>
+      <c r="H19" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3" t="s">
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" spans="1:9" s="5" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" s="9" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="2"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="28"/>
+    </row>
+    <row r="21" spans="1:9" s="5" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="26"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20">
+      <c r="A22" s="25">
         <v>3</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22" t="s">
+      <c r="G22" s="23"/>
+      <c r="H22" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="21"/>
-    </row>
-    <row r="23" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="23" t="s">
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="25"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="21"/>
-    </row>
-    <row r="24" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="23" t="s">
+      <c r="E23" s="24"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="21"/>
-    </row>
-    <row r="25" spans="1:9" s="9" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="21"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" s="5" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="25"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="23"/>
     </row>
     <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>4</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="19" t="s">
+      <c r="G26" s="4"/>
+      <c r="H26" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I26" s="8"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20">
+      <c r="A27" s="25">
         <v>5</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="33" t="s">
+      <c r="G27" s="23"/>
+      <c r="H27" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="I27" s="21"/>
-    </row>
-    <row r="28" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="23" t="s">
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="25"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="21"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13">
+      <c r="A29" s="26">
         <v>6</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3" t="s">
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+    </row>
+    <row r="30" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="26"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="20">
+      <c r="A31" s="25">
         <v>7</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="33" t="s">
+      <c r="G31" s="23"/>
+      <c r="H31" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="I31" s="21"/>
-    </row>
-    <row r="32" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="23" t="s">
+      <c r="I31" s="23"/>
+    </row>
+    <row r="32" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="25"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="21"/>
-    </row>
-    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+      <c r="E32" s="24"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>8</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="19" t="s">
+      <c r="G33" s="4"/>
+      <c r="H33" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I33" s="8"/>
-    </row>
-    <row r="34" spans="1:9" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A34" s="31">
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A34" s="18">
         <v>9</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="35" t="s">
+      <c r="G34" s="19"/>
+      <c r="H34" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="I34" s="32"/>
-    </row>
-    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+      <c r="I34" s="19"/>
+    </row>
+    <row r="35" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>10</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="34" t="s">
+      <c r="G35" s="4"/>
+      <c r="H35" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="I35" s="8"/>
-    </row>
-    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A36" s="31">
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A36" s="18">
         <v>11</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="35" t="s">
+      <c r="G36" s="19"/>
+      <c r="H36" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="I36" s="32"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
+      <c r="I36" s="19"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="39" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="C9:C17"/>
+    <mergeCell ref="B9:B17"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="H9:H17"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="E9:E18"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="I31:I32"/>
@@ -1419,50 +1573,425 @@
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="E9:E18"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F15:F17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E15EB9-FFE7-4AE4-B65B-72D3568C8916}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" customWidth="1"/>
+    <col min="3" max="3" width="70.77734375" customWidth="1"/>
+    <col min="4" max="4" width="61.5546875" customWidth="1"/>
+    <col min="5" max="5" width="168" customWidth="1"/>
+    <col min="6" max="6" width="102.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36">
+        <v>12</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="36"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="32"/>
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26">
+        <v>13</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="39"/>
+    </row>
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="39"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="39"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="39"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="25">
+        <v>14</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="25">
+        <v>16</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="25"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="26">
+        <v>17</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="28"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="25">
+        <v>18</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="25"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="53">
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="I11:I14"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="C9:C17"/>
-    <mergeCell ref="B9:B17"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="H9:H17"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1470,6 +1999,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C98DC0DA1CA8DC49B34C2D302D0DE83D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31210315af10d6c46454bb0b810613a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a3f6ac5c-7eab-4aa2-8e20-c08cae829730" xmlns:ns4="0ab7595c-8fac-4591-a4ee-d21cce4bb700" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="135affc7822c384d5da4d997e9ff3251" ns3:_="" ns4:_="">
     <xsd:import namespace="a3f6ac5c-7eab-4aa2-8e20-c08cae829730"/>
@@ -1692,15 +2230,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1708,6 +2237,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25ADC93D-6341-4442-A52B-EEE020B94B56}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E25B288-62CD-4FA1-B28C-BF9CC5003247}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1722,14 +2259,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25ADC93D-6341-4442-A52B-EEE020B94B56}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
